--- a/src/analysis_examples/circadb/results_jtk/cosinor_10361509_syne1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10361509_syne1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20875295415167733, 0.3340193808869966]</t>
+          <t>[0.20606705495802544, 0.3367052800806485]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.161771190361094e-08</v>
+        <v>2.345177008145072e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.161771190361094e-08</v>
+        <v>2.345177008145072e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3792281778143809, 0.4461844279271807]</t>
+          <t>[0.3792596211590693, 0.4461529845824923]</t>
         </is>
       </c>
       <c r="U2" t="n">
